--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_009.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{28A0540E-5558-464B-ABC5-8A7595CDC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B521C22-02F2-442E-BB03-F202603F496B}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{28A0540E-5558-464B-ABC5-8A7595CDC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2FA9DE-B36A-4FC1-86DF-7697B0BC4928}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC5585D9-86CC-46C8-92DB-01586C12D4B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Imprint</t>
   </si>
@@ -132,6 +132,33 @@
   </si>
   <si>
     <t>Ny i listan - Missade i föregående uppdatering</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>2049-0801</t>
+  </si>
+  <si>
+    <t>Annals of Medicine and Surgery</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/journal/Annals-of-Medicine-and-Surgery</t>
+  </si>
+  <si>
+    <t>scifree_data_elsevier</t>
+  </si>
+  <si>
+    <t>Borttagen</t>
+  </si>
+  <si>
+    <t>1743-9191</t>
+  </si>
+  <si>
+    <t>International Journal of Surgery</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/17439191</t>
   </si>
 </sst>
 </file>
@@ -184,7 +211,148 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -198,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{949166AF-5060-45F0-857E-84ECCB5EC204}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0">
-  <autoFilter ref="A1:I5" xr:uid="{949166AF-5060-45F0-857E-84ECCB5EC204}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{949166AF-5060-45F0-857E-84ECCB5EC204}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{949166AF-5060-45F0-857E-84ECCB5EC204}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B82C4767-364E-4A5B-A0A4-EC16670F1942}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{9EA3ACDD-831C-4A10-A2D2-F97DE81A5184}" name="ISSN Electronic"/>
@@ -512,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A89CF-026F-4605-A398-7EAE09F3098C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +838,93 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{3D784744-E227-438E-B335-B744845ABF1B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{2B414218-180D-4406-81BD-94A23C219000}"/>
